--- a/biology/Botanique/Pois_d'Angole/Pois_d'Angole.xlsx
+++ b/biology/Botanique/Pois_d'Angole/Pois_d'Angole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pois_d%27Angole</t>
+          <t>Pois_d'Angole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cajanus cajan
 Le pois d'Angole (Cajanus cajan, syn. Cajanus indicus) est une espèce de plante vivace de la famille des Fabaceae.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pois_d%27Angole</t>
+          <t>Pois_d'Angole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Angole fait référence à la côte occidentale du sud de l'Afrique.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pois_d%27Angole</t>
+          <t>Pois_d'Angole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La culture du pois d'Angole remonte à au moins 3 000 ans. Le centre d'origine se situe très vraisemblablement en Inde[1], d'où il s'est diffusé en Afrique orientale et de là, par la traite des esclaves, vers le continent américain. De nos jours, le pois d'Angole est largement cultivé dans toutes les régions tropicales et semi-tropicales de l'Ancien et du Nouveau monde.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture du pois d'Angole remonte à au moins 3 000 ans. Le centre d'origine se situe très vraisemblablement en Inde, d'où il s'est diffusé en Afrique orientale et de là, par la traite des esclaves, vers le continent américain. De nos jours, le pois d'Angole est largement cultivé dans toutes les régions tropicales et semi-tropicales de l'Ancien et du Nouveau monde.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pois_d%27Angole</t>
+          <t>Pois_d'Angole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Zones de production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sous-continent indien, l'Afrique orientale et l'Amérique centrale sont, dans cet ordre, les trois principales régions productrices de pois d'Angole dans le monde.
 Le pois d'Angole est cultivé dans plus de 25 pays tropicaux et subtropicaux, soit en monoculture, soit en rotation avec des céréales telles que le sorgho (Sorghum bicolor), le millet perle (Pennisetium glaucum), ou le maïs (Zea mays), ou avec d'autres légumineuses comme l'arachide (Arachis hypogaea). 
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pois_d%27Angole</t>
+          <t>Pois_d'Angole</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pois d'Angole est à la fois une culture vivrière (pois secs, farine, pois frais ou légumes verts) et une culture fourragère de couverture. Les pois contiennent des niveaux élevés de protéines et d'importants acides aminés (méthionine, lysine et tryptophane). En combinaison avec des céréales, le pois d'Angole constitue une alimentation humaine équilibrée.
 La germination améliore la digestibilité des pois d'Angole secs en assurant l'hydrolyse des sucres complexes (polysaccharides).
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pois_d%27Angole</t>
+          <t>Pois_d'Angole</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +668,9 @@
           <t>Anciens noms scientifiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cytisus cajan (Crawfurd 1852)
 Cajanus indicus, Spreng. (Valder 1895)</t>
